--- a/code/accidents_at_work/age_groups_09.xlsx
+++ b/code/accidents_at_work/age_groups_09.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>ages</t>
   </si>
@@ -22,10 +22,16 @@
     <t>percentage</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>15 and younger</t>
   </si>
   <si>
     <t xml:space="preserve">0.04  </t>
+  </si>
+  <si>
+    <t>2009</t>
   </si>
   <si>
     <t>15-19</t>
@@ -144,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -220,6 +226,21 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="medium">
@@ -233,7 +254,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -255,19 +276,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1350,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1359,7 +1383,8 @@
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
-    <col min="4" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -1372,148 +1397,190 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>3</v>
       </c>
       <c r="C2" t="s" s="6">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="13.2" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
         <v>45</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.2" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8">
         <v>578</v>
       </c>
-      <c r="C4" t="s" s="8">
-        <v>8</v>
+      <c r="C4" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
         <v>1135</v>
       </c>
-      <c r="C5" t="s" s="8">
-        <v>10</v>
+      <c r="C5" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="13.2" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7">
+        <v>13</v>
+      </c>
+      <c r="B6" s="8">
         <v>1213</v>
       </c>
-      <c r="C6" t="s" s="8">
-        <v>12</v>
+      <c r="C6" t="s" s="9">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="13.2" customHeight="1">
       <c r="A7" t="s" s="4">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8">
         <v>1154</v>
       </c>
-      <c r="C7" t="s" s="8">
-        <v>14</v>
+      <c r="C7" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="8" ht="13.2" customHeight="1">
       <c r="A8" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
         <v>1109</v>
       </c>
-      <c r="C8" t="s" s="8">
-        <v>16</v>
+      <c r="C8" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.2" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
         <v>874</v>
       </c>
-      <c r="C9" t="s" s="8">
-        <v>18</v>
+      <c r="C9" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="10" ht="13.2" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>19</v>
-      </c>
-      <c r="B10" s="7">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8">
         <v>721</v>
       </c>
-      <c r="C10" t="s" s="8">
-        <v>20</v>
+      <c r="C10" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="75" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B11" s="7">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8">
         <v>501</v>
       </c>
-      <c r="C11" t="s" s="8">
-        <v>22</v>
+      <c r="C11" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
         <v>125</v>
       </c>
-      <c r="C12" t="s" s="8">
-        <v>24</v>
+      <c r="C12" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13" t="s" s="8">
-        <v>26</v>
+      <c r="C13" t="s" s="9">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="B14" s="11">
         <v>57</v>
       </c>
-      <c r="C14" t="s" s="11">
-        <v>28</v>
+      <c r="C14" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
